--- a/car.xlsx
+++ b/car.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0253A4FB-B0EA-E546-B69D-1CFF2A3167F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7CA34B-46D5-BA48-9F0F-F67014374888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="740" windowWidth="28300" windowHeight="17260" xr2:uid="{B37AC63E-EDB1-D145-ACB4-BC9CB7AF6BC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,6 +83,42 @@
   </si>
   <si>
     <t>연비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -483,13 +519,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5F558B-1FE3-8747-B745-A45C218C738D}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -505,8 +543,14 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -522,8 +566,14 @@
       <c r="E2" s="1">
         <v>900</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -539,8 +589,14 @@
       <c r="E3" s="1">
         <v>800</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -556,8 +612,14 @@
       <c r="E4" s="1">
         <v>100</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -573,8 +635,14 @@
       <c r="E5" s="1">
         <v>200</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -590,8 +658,14 @@
       <c r="E6" s="1">
         <v>100</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -607,8 +681,14 @@
       <c r="E7" s="1">
         <v>300</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -623,6 +703,12 @@
       </c>
       <c r="E8" s="1">
         <v>400</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
